--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu4.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9825CD-795B-4742-88DC-FE5C0D8F18D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4116B-D0DC-4335-83EC-3C13C90E31CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"> hitastig</t>
   </si>
@@ -89,18 +89,6 @@
   </si>
   <si>
     <t>Jafnvhitastig án viftu:</t>
-  </si>
-  <si>
-    <t>fan_on</t>
-  </si>
-  <si>
-    <t>jafnv. Hiti</t>
-  </si>
-  <si>
-    <t>tímastuðull</t>
-  </si>
-  <si>
-    <t>63% hitabr.</t>
   </si>
   <si>
     <t># tími</t>
@@ -197,7 +185,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> á Raspi5</a:t>
+              <a:t> á Raspi4</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2686,7 +2674,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>dc 0</c:v>
+            <c:v>dc 90 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2702,15 +2690,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$28:$I$28</c:f>
+              <c:f>Sheet1!$H$42:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>115.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>115.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,7 +2721,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000001-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2741,7 +2729,62 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>dc 10</c:v>
+            <c:v>dc 10 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$43:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>260.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A53F-4A34-964D-10794F1B6317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dc 90 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2757,15 +2800,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$29:$I$29</c:f>
+              <c:f>Sheet1!$H$44:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>333.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43</c:v>
+                  <c:v>333.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,20 +2831,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000003-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>dc 20</c:v>
+            <c:v>dc 10 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2812,15 +2855,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$30:$I$30</c:f>
+              <c:f>Sheet1!$H$45:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>380.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>380.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,20 +2886,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000004-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>dc 30</c:v>
+            <c:v>dc 90 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2867,15 +2910,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$31:$I$31</c:f>
+              <c:f>Sheet1!$H$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>573.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>573.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,20 +2941,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000005-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>dc 40</c:v>
+            <c:v>dc 10 3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2922,15 +2967,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$32:$I$32</c:f>
+              <c:f>Sheet1!$H$47:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>646.95000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>646.95000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,20 +2998,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000006-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
-            <c:v>dc 50</c:v>
+            <c:v>dc 90 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2977,15 +3024,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$33:$I$33</c:f>
+              <c:f>Sheet1!$H$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>756.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>756.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,20 +3055,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000007-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
-            <c:v>dc 60</c:v>
+            <c:v>dc 10 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3032,15 +3081,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$34:$I$34</c:f>
+              <c:f>Sheet1!$H$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>830.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>830.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,20 +3112,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000008-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
-            <c:v>dc 70</c:v>
+            <c:v>dc 90 5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3087,15 +3138,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$35:$I$35</c:f>
+              <c:f>Sheet1!$H$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>908.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>908.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,20 +3169,22 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{00000009-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
-            <c:v>dc 80</c:v>
+            <c:v>dc 10 5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3142,15 +3195,15 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$36:$I$36</c:f>
+              <c:f>Sheet1!$H$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1019.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1019.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3173,117 +3226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-407D-4988-BEB3-972AC3A98B0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>dc 90</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$37:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>115.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-407D-4988-BEB3-972AC3A98B0F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>dc 100</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$38:$I$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$29:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-407D-4988-BEB3-972AC3A98B0F}"/>
+              <c16:uniqueId val="{0000000A-A53F-4A34-964D-10794F1B6317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3588,1118 +3531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Jafnvægishitastig sem fall af duty cycle</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$28:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$28:$J$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.719999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0ECA-4263-BAA9-7873B8702CB5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="435417088"/>
-        <c:axId val="251843536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="435417088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duty</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> cycle</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="251843536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="251843536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Hitastig (°C)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435417088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Jafnvægishitastig sem fall af duty cycle á línulegu sviði</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="10"/>
-            <c:backward val="10"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.0020833333333333E-2"/>
-                  <c:y val="-0.40268675055323966"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$29:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$29:$J$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>22.560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.719999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-043A-49F7-88EA-3BDBCB32664F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="435417088"/>
-        <c:axId val="251843536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="435417088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Duty</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> cycle</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="251843536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="251843536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Hitastig (°C)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="435417088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5255,1038 +4087,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6320,80 +4120,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3454FD4-BC22-4CA4-9B97-34D198A9F803}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEBD7E4-4810-4D08-99B7-9514B4CA5FA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6665,10 +4391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y631"/>
+  <dimension ref="A1:N631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6680,9 +4406,9 @@
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6697,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.43</v>
       </c>
@@ -6714,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.43</v>
       </c>
@@ -6730,8 +4456,12 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f>IF(D3=D2,"",A3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.87</v>
       </c>
@@ -6747,8 +4477,12 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="0">IF(D4=D3,"",A4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.87</v>
       </c>
@@ -6764,8 +4498,12 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.3</v>
       </c>
@@ -6781,8 +4519,12 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.3</v>
       </c>
@@ -6798,8 +4540,12 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7.73</v>
       </c>
@@ -6815,8 +4561,12 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.73</v>
       </c>
@@ -6832,8 +4582,12 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10.17</v>
       </c>
@@ -6849,8 +4603,12 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11.17</v>
       </c>
@@ -6866,8 +4624,12 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>48.85</v>
       </c>
@@ -6883,8 +4645,12 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>49.85</v>
       </c>
@@ -6900,8 +4666,12 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>51.28</v>
       </c>
@@ -6917,8 +4687,12 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>52.28</v>
       </c>
@@ -6934,8 +4708,12 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>75.569999999999993</v>
       </c>
@@ -6951,8 +4729,12 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>76.569999999999993</v>
       </c>
@@ -6968,8 +4750,12 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>78</v>
       </c>
@@ -6985,8 +4771,12 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>79.010000000000005</v>
       </c>
@@ -7002,8 +4792,12 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>80.44</v>
       </c>
@@ -7019,8 +4813,12 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>81.44</v>
       </c>
@@ -7036,8 +4834,12 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>82.88</v>
       </c>
@@ -7053,8 +4855,12 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>83.88</v>
       </c>
@@ -7070,8 +4876,12 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>85.32</v>
       </c>
@@ -7087,8 +4897,12 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>86.32</v>
       </c>
@@ -7104,8 +4918,12 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>87.76</v>
       </c>
@@ -7121,11 +4939,15 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>88.76</v>
       </c>
@@ -7141,6 +4963,10 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
@@ -7150,26 +4976,8 @@
       <c r="J27" t="s">
         <v>9</v>
       </c>
-      <c r="T27" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V27" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>90.2</v>
       </c>
@@ -7184,6 +4992,10 @@
       </c>
       <c r="E28">
         <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G28">
         <v>0</v>
@@ -7200,22 +5012,8 @@
         <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" cm="1">
-        <f t="array" ref="V28:V38">H28:H38</f>
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <f>N31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>91.2</v>
       </c>
@@ -7230,6 +5028,10 @@
       </c>
       <c r="E29">
         <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G29">
         <v>10</v>
@@ -7239,12 +5041,12 @@
         <v>0.43</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I38" si="0">H29</f>
+        <f t="shared" ref="I29:I38" si="1">H29</f>
         <v>0.43</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J38" si="1">_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
-        <v>22.560000000000002</v>
+        <f t="shared" ref="J29:J38" si="2">_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
+        <v>1019.79</v>
       </c>
       <c r="L29" t="s">
         <v>7</v>
@@ -7253,30 +5055,8 @@
         <f>CEILING(MAX($B$2:$B$631),10)</f>
         <v>30</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <f>G28</f>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0.43</v>
-      </c>
-      <c r="W29">
-        <f>J28</f>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f>W28-0.63*(W28-W29)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f>_xlfn.MINIFS($A$2:$A$631,$B$2:$B$631, "&lt;"&amp; W29, $C$2:$C$631,T29,$D$2:$D$631,U29)-V28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>92.64</v>
       </c>
@@ -7292,51 +5072,33 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G30">
         <v>20</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H38" si="2">_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G30)</f>
+        <f t="shared" ref="H30:H38" si="3">_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G30)</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="L30" t="s">
         <v>8</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <f t="shared" ref="U30:U38" si="3">G29</f>
-        <v>10</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f t="shared" ref="W30:W39" si="4">J29</f>
-        <v>22.560000000000002</v>
-      </c>
-      <c r="X30">
-        <f t="shared" ref="X30:X39" si="5">W29-0.63*(W29-W30)</f>
-        <v>14.212800000000001</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" ref="Y30:Y39" si="6">_xlfn.MINIFS($A$2:$A$631,$B$2:$B$631, "&lt;"&amp; W30, $C$2:$C$631,T30,$D$2:$D$631,U30)-V29</f>
-        <v>259.64999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>93.64</v>
       </c>
@@ -7352,19 +5114,23 @@
       <c r="E31">
         <v>1</v>
       </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G31">
         <v>30</v>
       </c>
       <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31" t="s">
@@ -7374,30 +5140,8 @@
         <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,0,$D$2:$D$631,0)</f>
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="5"/>
-        <v>8.3472000000000008</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>95.08</v>
       </c>
@@ -7413,579 +5157,558 @@
       <c r="E32">
         <v>1</v>
       </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G32">
         <v>40</v>
       </c>
       <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I32">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>96.08</v>
+      </c>
+      <c r="B33">
+        <v>25.2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>96.08</v>
-      </c>
-      <c r="B33">
-        <v>25.2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="H33">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I33">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>97.52</v>
+      </c>
+      <c r="B34">
+        <v>25.2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>97.52</v>
-      </c>
-      <c r="B34">
-        <v>25.2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>60</v>
-      </c>
-      <c r="H34">
+      <c r="J34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I34">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>98.52</v>
+      </c>
+      <c r="B35">
+        <v>25.2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>98.52</v>
-      </c>
-      <c r="B35">
-        <v>25.2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>70</v>
-      </c>
-      <c r="H35">
+      <c r="J35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>99.95</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>99.95</v>
-      </c>
-      <c r="B36">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>80</v>
-      </c>
-      <c r="H36">
+      <c r="J36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>100.95</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G37">
+        <v>90</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>115.56</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>115.56</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>908.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>102.38</v>
+      </c>
+      <c r="B38">
+        <v>24.8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="V36">
+      <c r="J38">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W36">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>103.38</v>
+      </c>
+      <c r="B39">
+        <v>24.8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>104.82</v>
+      </c>
+      <c r="B40">
+        <v>24.6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>105.82</v>
+      </c>
+      <c r="B41">
+        <v>24.6</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H41" t="str" cm="1">
+        <f t="array" ref="H41:H51">_xlfn.UNIQUE(F3:F400)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>107.25</v>
+      </c>
+      <c r="B42">
+        <v>24.4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>115.56</v>
+      </c>
+      <c r="I42">
+        <f>H42</f>
+        <v>115.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>108.25</v>
+      </c>
+      <c r="B43">
+        <v>24.4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>260.08</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I51" si="4">H43</f>
+        <v>260.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>109.69</v>
+      </c>
+      <c r="B44">
+        <v>24.4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G44">
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <v>333.03</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>100.95</v>
-      </c>
-      <c r="B37">
-        <v>25</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>90</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="2"/>
+        <v>333.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>110.69</v>
+      </c>
+      <c r="B45">
+        <v>24.4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>380.23</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>380.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>112.12</v>
+      </c>
+      <c r="B46">
+        <v>24.4</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G46">
+        <v>90</v>
+      </c>
+      <c r="H46">
+        <v>573.02</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>573.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>113.12</v>
+      </c>
+      <c r="B47">
+        <v>24.4</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>646.95000000000005</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>646.95000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>114.55</v>
+      </c>
+      <c r="B48">
+        <v>24.6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G48">
+        <v>90</v>
+      </c>
+      <c r="H48">
+        <v>756.12</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>756.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>115.56</v>
       </c>
-      <c r="I37">
+      <c r="B49">
+        <v>24.6</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="0"/>
         <v>115.56</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>24.719999999999995</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="V37">
-        <v>115.56</v>
-      </c>
-      <c r="W37">
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>830.52</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>102.38</v>
-      </c>
-      <c r="B38">
-        <v>24.8</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="4"/>
-        <v>24.719999999999995</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="5"/>
-        <v>15.573599999999997</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>103.38</v>
-      </c>
-      <c r="B39">
-        <v>24.8</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <f>G38</f>
-        <v>100</v>
-      </c>
-      <c r="V39">
-        <f>MAX($A$2:$A$631)</f>
-        <v>1124.26</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="5"/>
-        <v>9.1463999999999981</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>104.82</v>
-      </c>
-      <c r="B40">
-        <v>24.6</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>105.82</v>
-      </c>
-      <c r="B41">
-        <v>24.6</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>107.25</v>
-      </c>
-      <c r="B42">
-        <v>24.4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>108.25</v>
-      </c>
-      <c r="B43">
-        <v>24.4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>109.69</v>
-      </c>
-      <c r="B44">
-        <v>24.4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>110.69</v>
-      </c>
-      <c r="B45">
-        <v>24.4</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>112.12</v>
-      </c>
-      <c r="B46">
-        <v>24.4</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>113.12</v>
-      </c>
-      <c r="B47">
-        <v>24.4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>114.55</v>
-      </c>
-      <c r="B48">
-        <v>24.6</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>115.56</v>
-      </c>
-      <c r="B49">
-        <v>24.6</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>90</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>830.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>116.92</v>
       </c>
@@ -8001,8 +5724,22 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G50">
+        <v>90</v>
+      </c>
+      <c r="H50">
+        <v>908.08</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>908.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>117.92</v>
       </c>
@@ -8018,8 +5755,22 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>1019.79</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>1019.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>119.36</v>
       </c>
@@ -8035,8 +5786,12 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>120.36</v>
       </c>
@@ -8052,8 +5807,12 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>121.79</v>
       </c>
@@ -8069,8 +5828,12 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>122.79</v>
       </c>
@@ -8086,8 +5849,12 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>131.44999999999999</v>
       </c>
@@ -8103,8 +5870,12 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>132.44999999999999</v>
       </c>
@@ -8120,8 +5891,12 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>148.30000000000001</v>
       </c>
@@ -8137,8 +5912,12 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>149.30000000000001</v>
       </c>
@@ -8154,8 +5933,12 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>150.72999999999999</v>
       </c>
@@ -8171,8 +5954,12 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>151.72999999999999</v>
       </c>
@@ -8188,8 +5975,12 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>153.16</v>
       </c>
@@ -8205,8 +5996,12 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>154.16</v>
       </c>
@@ -8222,8 +6017,12 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>155.59</v>
       </c>
@@ -8239,8 +6038,12 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>156.59</v>
       </c>
@@ -8256,8 +6059,12 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>158.02000000000001</v>
       </c>
@@ -8273,8 +6080,12 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>159.03</v>
       </c>
@@ -8290,8 +6101,12 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>160.46</v>
       </c>
@@ -8307,8 +6122,12 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F131" si="5">IF(D68=D67,"",A68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>161.46</v>
       </c>
@@ -8324,8 +6143,12 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>162.88999999999999</v>
       </c>
@@ -8341,8 +6164,12 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>163.89</v>
       </c>
@@ -8358,8 +6185,12 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>238.19</v>
       </c>
@@ -8375,8 +6206,12 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>239.2</v>
       </c>
@@ -8392,8 +6227,12 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>247.91</v>
       </c>
@@ -8409,8 +6248,12 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>248.91</v>
       </c>
@@ -8426,8 +6269,12 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>250.34</v>
       </c>
@@ -8443,8 +6290,12 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>251.35</v>
       </c>
@@ -8460,8 +6311,12 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>252.78</v>
       </c>
@@ -8477,8 +6332,12 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>253.78</v>
       </c>
@@ -8494,8 +6353,12 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>255.21</v>
       </c>
@@ -8511,8 +6374,12 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>256.20999999999998</v>
       </c>
@@ -8528,8 +6395,12 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>257.64</v>
       </c>
@@ -8545,8 +6416,12 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>258.64</v>
       </c>
@@ -8562,8 +6437,12 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>260.08</v>
       </c>
@@ -8579,8 +6458,12 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>260.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>261.08</v>
       </c>
@@ -8596,8 +6479,12 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>267.38</v>
       </c>
@@ -8613,8 +6500,12 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>268.38</v>
       </c>
@@ -8630,8 +6521,12 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>274.67</v>
       </c>
@@ -8647,8 +6542,12 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>275.68</v>
       </c>
@@ -8664,8 +6563,12 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>279.55</v>
       </c>
@@ -8681,8 +6584,12 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>280.55</v>
       </c>
@@ -8698,8 +6605,12 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>284.41000000000003</v>
       </c>
@@ -8715,8 +6626,12 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>285.41000000000003</v>
       </c>
@@ -8732,8 +6647,12 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>289.27</v>
       </c>
@@ -8749,8 +6668,12 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>290.27999999999997</v>
       </c>
@@ -8766,8 +6689,12 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>311.14</v>
       </c>
@@ -8783,8 +6710,12 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>312.14</v>
       </c>
@@ -8800,8 +6731,12 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>313.57</v>
       </c>
@@ -8817,8 +6752,12 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>314.57</v>
       </c>
@@ -8834,8 +6773,12 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>316</v>
       </c>
@@ -8851,8 +6794,12 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>317</v>
       </c>
@@ -8868,8 +6815,12 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>318.43</v>
       </c>
@@ -8885,8 +6836,12 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>319.43</v>
       </c>
@@ -8902,8 +6857,12 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>320.86</v>
       </c>
@@ -8919,8 +6878,12 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>321.86</v>
       </c>
@@ -8936,8 +6899,12 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>323.29000000000002</v>
       </c>
@@ -8953,8 +6920,12 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>324.29000000000002</v>
       </c>
@@ -8970,8 +6941,12 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>325.73</v>
       </c>
@@ -8987,8 +6962,12 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>326.73</v>
       </c>
@@ -9004,8 +6983,12 @@
       <c r="E109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>328.16</v>
       </c>
@@ -9021,8 +7004,12 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>329.16</v>
       </c>
@@ -9038,8 +7025,12 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>330.59</v>
       </c>
@@ -9055,8 +7046,12 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>331.59</v>
       </c>
@@ -9072,8 +7067,12 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>333.03</v>
       </c>
@@ -9089,8 +7088,12 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>333.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>334.03</v>
       </c>
@@ -9106,8 +7109,12 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>335.46</v>
       </c>
@@ -9123,8 +7130,12 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>336.46</v>
       </c>
@@ -9140,8 +7151,12 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>337.89</v>
       </c>
@@ -9157,8 +7172,12 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>338.89</v>
       </c>
@@ -9174,8 +7193,12 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>340.28</v>
       </c>
@@ -9191,8 +7214,12 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>341.28</v>
       </c>
@@ -9208,8 +7235,12 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>342.73</v>
       </c>
@@ -9225,8 +7256,12 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>343.74</v>
       </c>
@@ -9242,8 +7277,12 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>345.17</v>
       </c>
@@ -9259,8 +7298,12 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>346.17</v>
       </c>
@@ -9276,8 +7319,12 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>347.61</v>
       </c>
@@ -9293,8 +7340,12 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>348.61</v>
       </c>
@@ -9310,8 +7361,12 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>350.04</v>
       </c>
@@ -9327,8 +7382,12 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>351.04</v>
       </c>
@@ -9344,8 +7403,12 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>352.48</v>
       </c>
@@ -9361,8 +7424,12 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>353.48</v>
       </c>
@@ -9378,8 +7445,12 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>357.34</v>
       </c>
@@ -9395,8 +7466,12 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="str">
+        <f t="shared" ref="F132:F195" si="6">IF(D132=D131,"",A132)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>358.34</v>
       </c>
@@ -9412,8 +7487,12 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>367.06</v>
       </c>
@@ -9429,8 +7508,12 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>368.06</v>
       </c>
@@ -9446,8 +7529,12 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>369.49</v>
       </c>
@@ -9463,8 +7550,12 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>370.49</v>
       </c>
@@ -9480,8 +7571,12 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>371.93</v>
       </c>
@@ -9497,8 +7592,12 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>372.93</v>
       </c>
@@ -9514,8 +7613,12 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>374.36</v>
       </c>
@@ -9531,8 +7634,12 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>375.37</v>
       </c>
@@ -9548,8 +7655,12 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>376.8</v>
       </c>
@@ -9565,8 +7676,12 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>377.8</v>
       </c>
@@ -9582,8 +7697,12 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>379.23</v>
       </c>
@@ -9599,8 +7718,12 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>380.23</v>
       </c>
@@ -9616,8 +7739,12 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <f t="shared" si="6"/>
+        <v>380.23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>381.67</v>
       </c>
@@ -9633,8 +7760,12 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>382.67</v>
       </c>
@@ -9650,8 +7781,12 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>384.1</v>
       </c>
@@ -9667,8 +7802,12 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>385.1</v>
       </c>
@@ -9684,8 +7823,12 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>386.54</v>
       </c>
@@ -9701,8 +7844,12 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>387.54</v>
       </c>
@@ -9718,8 +7865,12 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>388.98</v>
       </c>
@@ -9735,8 +7886,12 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>389.98</v>
       </c>
@@ -9752,8 +7907,12 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>391.41</v>
       </c>
@@ -9769,8 +7928,12 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>392.42</v>
       </c>
@@ -9786,8 +7949,12 @@
       <c r="E155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>393.85</v>
       </c>
@@ -9803,8 +7970,12 @@
       <c r="E156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>394.85</v>
       </c>
@@ -9820,8 +7991,12 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>435.14</v>
       </c>
@@ -9837,8 +8012,12 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>436.14</v>
       </c>
@@ -9854,8 +8033,12 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>457</v>
       </c>
@@ -9871,8 +8054,12 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>458</v>
       </c>
@@ -9888,8 +8075,12 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>464.23</v>
       </c>
@@ -9905,8 +8096,12 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>465.23</v>
       </c>
@@ -9922,8 +8117,12 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>548.80999999999995</v>
       </c>
@@ -9939,8 +8138,12 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>549.82000000000005</v>
       </c>
@@ -9956,8 +8159,12 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>551.26</v>
       </c>
@@ -9973,8 +8180,12 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>552.26</v>
       </c>
@@ -9990,8 +8201,12 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>553.70000000000005</v>
       </c>
@@ -10007,8 +8222,12 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>554.70000000000005</v>
       </c>
@@ -10024,8 +8243,12 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>556.13</v>
       </c>
@@ -10041,8 +8264,12 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>557.13</v>
       </c>
@@ -10058,8 +8285,12 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>558.46</v>
       </c>
@@ -10075,8 +8306,12 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>559.47</v>
       </c>
@@ -10092,8 +8327,12 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>560.9</v>
       </c>
@@ -10109,8 +8348,12 @@
       <c r="E174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>561.91</v>
       </c>
@@ -10126,8 +8369,12 @@
       <c r="E175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>563.34</v>
       </c>
@@ -10143,8 +8390,12 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>564.34</v>
       </c>
@@ -10160,8 +8411,12 @@
       <c r="E177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>565.77</v>
       </c>
@@ -10177,8 +8432,12 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>566.77</v>
       </c>
@@ -10194,8 +8453,12 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>568.15</v>
       </c>
@@ -10211,8 +8474,12 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>569.15</v>
       </c>
@@ -10228,8 +8495,12 @@
       <c r="E181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>570.58000000000004</v>
       </c>
@@ -10245,8 +8516,12 @@
       <c r="E182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>571.59</v>
       </c>
@@ -10262,8 +8537,12 @@
       <c r="E183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>573.02</v>
       </c>
@@ -10279,8 +8558,12 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <f t="shared" si="6"/>
+        <v>573.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>574.02</v>
       </c>
@@ -10296,8 +8579,12 @@
       <c r="E185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>575.46</v>
       </c>
@@ -10313,8 +8600,12 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>576.46</v>
       </c>
@@ -10330,8 +8621,12 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>577.9</v>
       </c>
@@ -10347,8 +8642,12 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>578.9</v>
       </c>
@@ -10364,8 +8663,12 @@
       <c r="E189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>580.34</v>
       </c>
@@ -10381,8 +8684,12 @@
       <c r="E190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>581.34</v>
       </c>
@@ -10398,8 +8705,12 @@
       <c r="E191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>582.79</v>
       </c>
@@ -10414,6 +8725,10 @@
       </c>
       <c r="E192">
         <v>1</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -10432,6 +8747,10 @@
       <c r="E193">
         <v>1</v>
       </c>
+      <c r="F193" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
@@ -10449,6 +8768,10 @@
       <c r="E194">
         <v>1</v>
       </c>
+      <c r="F194" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
@@ -10466,6 +8789,10 @@
       <c r="E195">
         <v>1</v>
       </c>
+      <c r="F195" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
@@ -10483,6 +8810,10 @@
       <c r="E196">
         <v>1</v>
       </c>
+      <c r="F196" t="str">
+        <f t="shared" ref="F196:F259" si="7">IF(D196=D195,"",A196)</f>
+        <v/>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
@@ -10500,6 +8831,10 @@
       <c r="E197">
         <v>1</v>
       </c>
+      <c r="F197" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
@@ -10517,6 +8852,10 @@
       <c r="E198">
         <v>1</v>
       </c>
+      <c r="F198" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
@@ -10534,6 +8873,10 @@
       <c r="E199">
         <v>1</v>
       </c>
+      <c r="F199" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
@@ -10551,6 +8894,10 @@
       <c r="E200">
         <v>1</v>
       </c>
+      <c r="F200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
@@ -10568,6 +8915,10 @@
       <c r="E201">
         <v>1</v>
       </c>
+      <c r="F201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -10585,6 +8936,10 @@
       <c r="E202">
         <v>1</v>
       </c>
+      <c r="F202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
@@ -10602,9 +8957,9 @@
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203">
-        <f>AVERAGE(B194:B203)</f>
-        <v>24.18</v>
+      <c r="F203" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -10623,6 +8978,10 @@
       <c r="E204">
         <v>1</v>
       </c>
+      <c r="F204" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
@@ -10640,6 +8999,10 @@
       <c r="E205">
         <v>1</v>
       </c>
+      <c r="F205" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
@@ -10657,6 +9020,10 @@
       <c r="E206">
         <v>1</v>
       </c>
+      <c r="F206" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -10674,6 +9041,10 @@
       <c r="E207">
         <v>1</v>
       </c>
+      <c r="F207" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
@@ -10691,8 +9062,12 @@
       <c r="E208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>603.19000000000005</v>
       </c>
@@ -10708,8 +9083,12 @@
       <c r="E209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>604.62</v>
       </c>
@@ -10725,8 +9104,12 @@
       <c r="E210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>605.62</v>
       </c>
@@ -10742,8 +9125,12 @@
       <c r="E211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>607.05999999999995</v>
       </c>
@@ -10759,8 +9146,12 @@
       <c r="E212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>608.05999999999995</v>
       </c>
@@ -10776,8 +9167,12 @@
       <c r="E213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>609.49</v>
       </c>
@@ -10793,8 +9188,12 @@
       <c r="E214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>610.49</v>
       </c>
@@ -10810,8 +9209,12 @@
       <c r="E215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>611.89</v>
       </c>
@@ -10827,8 +9230,12 @@
       <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>612.89</v>
       </c>
@@ -10844,8 +9251,12 @@
       <c r="E217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>614.33000000000004</v>
       </c>
@@ -10861,8 +9272,12 @@
       <c r="E218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>615.33000000000004</v>
       </c>
@@ -10878,8 +9293,12 @@
       <c r="E219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>616.76</v>
       </c>
@@ -10895,8 +9314,12 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>617.76</v>
       </c>
@@ -10912,8 +9335,12 @@
       <c r="E221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>621.63</v>
       </c>
@@ -10929,8 +9356,12 @@
       <c r="E222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>622.63</v>
       </c>
@@ -10946,8 +9377,12 @@
       <c r="E223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>631.33000000000004</v>
       </c>
@@ -10963,8 +9398,12 @@
       <c r="E224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>632.33000000000004</v>
       </c>
@@ -10980,8 +9419,12 @@
       <c r="E225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>633.76</v>
       </c>
@@ -10997,8 +9440,12 @@
       <c r="E226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>634.77</v>
       </c>
@@ -11014,8 +9461,12 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>636.20000000000005</v>
       </c>
@@ -11031,8 +9482,12 @@
       <c r="E228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>637.20000000000005</v>
       </c>
@@ -11048,8 +9503,12 @@
       <c r="E229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>638.63</v>
       </c>
@@ -11065,8 +9524,12 @@
       <c r="E230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>639.64</v>
       </c>
@@ -11082,8 +9545,12 @@
       <c r="E231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>641.07000000000005</v>
       </c>
@@ -11099,8 +9566,12 @@
       <c r="E232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>642.07000000000005</v>
       </c>
@@ -11116,8 +9587,12 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>643.51</v>
       </c>
@@ -11133,8 +9608,12 @@
       <c r="E234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>644.51</v>
       </c>
@@ -11150,8 +9629,12 @@
       <c r="E235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>645.95000000000005</v>
       </c>
@@ -11167,8 +9650,12 @@
       <c r="E236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>646.95000000000005</v>
       </c>
@@ -11184,8 +9671,12 @@
       <c r="E237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <f t="shared" si="7"/>
+        <v>646.95000000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>665.29</v>
       </c>
@@ -11201,8 +9692,12 @@
       <c r="E238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>666.29</v>
       </c>
@@ -11218,8 +9713,12 @@
       <c r="E239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>670.16</v>
       </c>
@@ -11235,8 +9734,12 @@
       <c r="E240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>671.16</v>
       </c>
@@ -11252,8 +9755,12 @@
       <c r="E241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>675.03</v>
       </c>
@@ -11269,8 +9776,12 @@
       <c r="E242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>676.03</v>
       </c>
@@ -11286,8 +9797,12 @@
       <c r="E243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>677.46</v>
       </c>
@@ -11303,8 +9818,12 @@
       <c r="E244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>678.46</v>
       </c>
@@ -11320,8 +9839,12 @@
       <c r="E245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>679.9</v>
       </c>
@@ -11337,8 +9860,12 @@
       <c r="E246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>680.9</v>
       </c>
@@ -11354,8 +9881,12 @@
       <c r="E247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>687.2</v>
       </c>
@@ -11371,8 +9902,12 @@
       <c r="E248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>688.2</v>
       </c>
@@ -11388,8 +9923,12 @@
       <c r="E249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>701.69</v>
       </c>
@@ -11405,8 +9944,12 @@
       <c r="E250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>702.69</v>
       </c>
@@ -11422,8 +9965,12 @@
       <c r="E251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>723.57</v>
       </c>
@@ -11439,8 +9986,12 @@
       <c r="E252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>724.57</v>
       </c>
@@ -11456,8 +10007,12 @@
       <c r="E253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>728.42</v>
       </c>
@@ -11473,8 +10028,12 @@
       <c r="E254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>729.43</v>
       </c>
@@ -11490,8 +10049,12 @@
       <c r="E255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>742.99</v>
       </c>
@@ -11506,6 +10069,10 @@
       </c>
       <c r="E256">
         <v>1</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -11524,6 +10091,10 @@
       <c r="E257">
         <v>1</v>
       </c>
+      <c r="F257" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
@@ -11541,6 +10112,10 @@
       <c r="E258">
         <v>1</v>
       </c>
+      <c r="F258" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
@@ -11558,6 +10133,10 @@
       <c r="E259">
         <v>1</v>
       </c>
+      <c r="F259" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
@@ -11575,6 +10154,10 @@
       <c r="E260">
         <v>1</v>
       </c>
+      <c r="F260" t="str">
+        <f t="shared" ref="F260:F323" si="8">IF(D260=D259,"",A260)</f>
+        <v/>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
@@ -11592,6 +10175,10 @@
       <c r="E261">
         <v>1</v>
       </c>
+      <c r="F261" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
@@ -11609,6 +10196,10 @@
       <c r="E262">
         <v>1</v>
       </c>
+      <c r="F262" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
@@ -11626,6 +10217,10 @@
       <c r="E263">
         <v>1</v>
       </c>
+      <c r="F263" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
@@ -11643,6 +10238,10 @@
       <c r="E264">
         <v>1</v>
       </c>
+      <c r="F264" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
@@ -11660,6 +10259,10 @@
       <c r="E265">
         <v>1</v>
       </c>
+      <c r="F265" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
@@ -11677,6 +10280,10 @@
       <c r="E266">
         <v>1</v>
       </c>
+      <c r="F266" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
@@ -11694,6 +10301,10 @@
       <c r="E267">
         <v>1</v>
       </c>
+      <c r="F267">
+        <f t="shared" si="8"/>
+        <v>756.12</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
@@ -11711,6 +10322,10 @@
       <c r="E268">
         <v>1</v>
       </c>
+      <c r="F268" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
@@ -11728,6 +10343,10 @@
       <c r="E269">
         <v>1</v>
       </c>
+      <c r="F269" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
@@ -11745,6 +10364,10 @@
       <c r="E270">
         <v>1</v>
       </c>
+      <c r="F270" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
@@ -11762,9 +10385,9 @@
       <c r="E271">
         <v>1</v>
       </c>
-      <c r="F271">
-        <f>AVERAGE(B262:B271)</f>
-        <v>24.719999999999995</v>
+      <c r="F271" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11783,8 +10406,12 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>763.44</v>
       </c>
@@ -11800,8 +10427,12 @@
       <c r="E273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>764.88</v>
       </c>
@@ -11817,8 +10448,12 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>765.88</v>
       </c>
@@ -11834,8 +10469,12 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>767.31</v>
       </c>
@@ -11851,8 +10490,12 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>768.32</v>
       </c>
@@ -11868,8 +10511,12 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>772.14</v>
       </c>
@@ -11885,8 +10532,12 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>773.15</v>
       </c>
@@ -11902,8 +10553,12 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>774.58</v>
       </c>
@@ -11919,8 +10574,12 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>775.58</v>
       </c>
@@ -11936,8 +10595,12 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>777.02</v>
       </c>
@@ -11953,8 +10616,12 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>778.02</v>
       </c>
@@ -11970,8 +10637,12 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>779.45</v>
       </c>
@@ -11987,8 +10658,12 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>780.45</v>
       </c>
@@ -12004,8 +10679,12 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>781.89</v>
       </c>
@@ -12021,8 +10700,12 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>782.89</v>
       </c>
@@ -12038,8 +10721,12 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>798.89</v>
       </c>
@@ -12055,8 +10742,12 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>799.89</v>
       </c>
@@ -12072,8 +10763,12 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>813.47</v>
       </c>
@@ -12089,8 +10784,12 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>814.47</v>
       </c>
@@ -12106,8 +10805,12 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>815.9</v>
       </c>
@@ -12123,8 +10826,12 @@
       <c r="E292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>816.9</v>
       </c>
@@ -12140,8 +10847,12 @@
       <c r="E293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>818.34</v>
       </c>
@@ -12157,8 +10868,12 @@
       <c r="E294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>819.34</v>
       </c>
@@ -12174,8 +10889,12 @@
       <c r="E295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>820.77</v>
       </c>
@@ -12191,8 +10910,12 @@
       <c r="E296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>821.78</v>
       </c>
@@ -12208,8 +10931,12 @@
       <c r="E297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>823.21</v>
       </c>
@@ -12225,8 +10952,12 @@
       <c r="E298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>824.21</v>
       </c>
@@ -12242,8 +10973,12 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>825.65</v>
       </c>
@@ -12259,8 +10994,12 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>826.65</v>
       </c>
@@ -12276,8 +11015,12 @@
       <c r="E301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>828.08</v>
       </c>
@@ -12293,8 +11036,12 @@
       <c r="E302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>829.08</v>
       </c>
@@ -12310,8 +11057,12 @@
       <c r="E303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>830.52</v>
       </c>
@@ -12327,8 +11078,12 @@
       <c r="E304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304">
+        <f t="shared" si="8"/>
+        <v>830.52</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>831.52</v>
       </c>
@@ -12344,8 +11099,12 @@
       <c r="E305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>847.42</v>
       </c>
@@ -12361,8 +11120,12 @@
       <c r="E306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>848.42</v>
       </c>
@@ -12378,8 +11141,12 @@
       <c r="E307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>852.3</v>
       </c>
@@ -12395,8 +11162,12 @@
       <c r="E308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>853.3</v>
       </c>
@@ -12412,8 +11183,12 @@
       <c r="E309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>862</v>
       </c>
@@ -12429,8 +11204,12 @@
       <c r="E310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F310" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>863</v>
       </c>
@@ -12446,8 +11225,12 @@
       <c r="E311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>864.44</v>
       </c>
@@ -12463,8 +11246,12 @@
       <c r="E312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>865.44</v>
       </c>
@@ -12480,8 +11267,12 @@
       <c r="E313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>866.75</v>
       </c>
@@ -12497,8 +11288,12 @@
       <c r="E314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>867.75</v>
       </c>
@@ -12514,8 +11309,12 @@
       <c r="E315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>883.73</v>
       </c>
@@ -12531,8 +11330,12 @@
       <c r="E316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>884.73</v>
       </c>
@@ -12548,8 +11351,12 @@
       <c r="E317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>886.16</v>
       </c>
@@ -12565,8 +11372,12 @@
       <c r="E318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>887.16</v>
       </c>
@@ -12582,8 +11393,12 @@
       <c r="E319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>888.6</v>
       </c>
@@ -12599,8 +11414,12 @@
       <c r="E320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>889.6</v>
       </c>
@@ -12616,8 +11435,12 @@
       <c r="E321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>891.03</v>
       </c>
@@ -12633,8 +11456,12 @@
       <c r="E322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>892.03</v>
       </c>
@@ -12650,8 +11477,12 @@
       <c r="E323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>893.47</v>
       </c>
@@ -12667,8 +11498,12 @@
       <c r="E324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324" t="str">
+        <f t="shared" ref="F324:F387" si="9">IF(D324=D323,"",A324)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>894.47</v>
       </c>
@@ -12684,8 +11519,12 @@
       <c r="E325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>895.9</v>
       </c>
@@ -12701,8 +11540,12 @@
       <c r="E326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>896.9</v>
       </c>
@@ -12718,8 +11561,12 @@
       <c r="E327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>898.33</v>
       </c>
@@ -12735,8 +11582,12 @@
       <c r="E328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>899.34</v>
       </c>
@@ -12752,8 +11603,12 @@
       <c r="E329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>903.21</v>
       </c>
@@ -12769,8 +11624,12 @@
       <c r="E330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>904.21</v>
       </c>
@@ -12786,8 +11645,12 @@
       <c r="E331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>905.64</v>
       </c>
@@ -12803,8 +11666,12 @@
       <c r="E332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>906.64</v>
       </c>
@@ -12820,8 +11687,12 @@
       <c r="E333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>908.08</v>
       </c>
@@ -12837,8 +11708,12 @@
       <c r="E334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334">
+        <f t="shared" si="9"/>
+        <v>908.08</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>909.08</v>
       </c>
@@ -12854,8 +11729,12 @@
       <c r="E335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>910.46</v>
       </c>
@@ -12871,8 +11750,12 @@
       <c r="E336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>911.46</v>
       </c>
@@ -12888,8 +11771,12 @@
       <c r="E337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>912.9</v>
       </c>
@@ -12905,8 +11792,12 @@
       <c r="E338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>913.9</v>
       </c>
@@ -12922,8 +11813,12 @@
       <c r="E339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>920.19</v>
       </c>
@@ -12939,8 +11834,12 @@
       <c r="E340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>921.19</v>
       </c>
@@ -12956,8 +11855,12 @@
       <c r="E341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>993.06</v>
       </c>
@@ -12973,8 +11876,12 @@
       <c r="E342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>994.06</v>
       </c>
@@ -12990,8 +11897,12 @@
       <c r="E343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>995.48</v>
       </c>
@@ -13007,8 +11918,12 @@
       <c r="E344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>996.49</v>
       </c>
@@ -13024,8 +11939,12 @@
       <c r="E345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>997.92</v>
       </c>
@@ -13041,8 +11960,12 @@
       <c r="E346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>998.92</v>
       </c>
@@ -13058,8 +11981,12 @@
       <c r="E347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1000.35</v>
       </c>
@@ -13075,8 +12002,12 @@
       <c r="E348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1001.35</v>
       </c>
@@ -13092,8 +12023,12 @@
       <c r="E349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1002.77</v>
       </c>
@@ -13109,8 +12044,12 @@
       <c r="E350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F350" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1003.78</v>
       </c>
@@ -13126,8 +12065,12 @@
       <c r="E351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F351" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1005.21</v>
       </c>
@@ -13143,8 +12086,12 @@
       <c r="E352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F352" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1006.21</v>
       </c>
@@ -13160,8 +12107,12 @@
       <c r="E353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F353" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1007.64</v>
       </c>
@@ -13177,8 +12128,12 @@
       <c r="E354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F354" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1008.64</v>
       </c>
@@ -13194,8 +12149,12 @@
       <c r="E355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F355" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1010.07</v>
       </c>
@@ -13211,8 +12170,12 @@
       <c r="E356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F356" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1011.07</v>
       </c>
@@ -13228,8 +12191,12 @@
       <c r="E357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F357" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1012.5</v>
       </c>
@@ -13245,8 +12212,12 @@
       <c r="E358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F358" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1013.5</v>
       </c>
@@ -13262,8 +12233,12 @@
       <c r="E359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F359" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1014.93</v>
       </c>
@@ -13279,8 +12254,12 @@
       <c r="E360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F360" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1015.93</v>
       </c>
@@ -13296,8 +12275,12 @@
       <c r="E361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F361" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1017.36</v>
       </c>
@@ -13313,8 +12296,12 @@
       <c r="E362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F362" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1018.36</v>
       </c>
@@ -13330,8 +12317,12 @@
       <c r="E363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F363" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1019.79</v>
       </c>
@@ -13347,8 +12338,12 @@
       <c r="E364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F364">
+        <f t="shared" si="9"/>
+        <v>1019.79</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1020.79</v>
       </c>
@@ -13364,8 +12359,12 @@
       <c r="E365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F365" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1022.22</v>
       </c>
@@ -13381,8 +12380,12 @@
       <c r="E366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F366" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1023.22</v>
       </c>
@@ -13398,8 +12401,12 @@
       <c r="E367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F367" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1024.6600000000001</v>
       </c>
@@ -13414,6 +12421,10 @@
       </c>
       <c r="E368">
         <v>1</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -13432,6 +12443,10 @@
       <c r="E369">
         <v>1</v>
       </c>
+      <c r="F369" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
@@ -13449,6 +12464,10 @@
       <c r="E370">
         <v>1</v>
       </c>
+      <c r="F370" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
@@ -13466,6 +12485,10 @@
       <c r="E371">
         <v>1</v>
       </c>
+      <c r="F371" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
@@ -13483,6 +12506,10 @@
       <c r="E372">
         <v>1</v>
       </c>
+      <c r="F372" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
@@ -13500,6 +12527,10 @@
       <c r="E373">
         <v>1</v>
       </c>
+      <c r="F373" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
@@ -13517,6 +12548,10 @@
       <c r="E374">
         <v>1</v>
       </c>
+      <c r="F374" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
@@ -13534,6 +12569,10 @@
       <c r="E375">
         <v>1</v>
       </c>
+      <c r="F375" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
@@ -13551,6 +12590,10 @@
       <c r="E376">
         <v>1</v>
       </c>
+      <c r="F376" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
@@ -13568,6 +12611,10 @@
       <c r="E377">
         <v>1</v>
       </c>
+      <c r="F377" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
@@ -13585,9 +12632,9 @@
       <c r="E378">
         <v>1</v>
       </c>
-      <c r="F378">
-        <f>AVERAGE(B369:B378)</f>
-        <v>22.560000000000002</v>
+      <c r="F378" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -13606,6 +12653,10 @@
       <c r="E379">
         <v>1</v>
       </c>
+      <c r="F379" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
@@ -13623,6 +12674,10 @@
       <c r="E380">
         <v>1</v>
       </c>
+      <c r="F380" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
@@ -13640,6 +12695,10 @@
       <c r="E381">
         <v>1</v>
       </c>
+      <c r="F381" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
@@ -13657,6 +12716,10 @@
       <c r="E382">
         <v>1</v>
       </c>
+      <c r="F382" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
@@ -13674,6 +12737,10 @@
       <c r="E383">
         <v>1</v>
       </c>
+      <c r="F383" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
@@ -13691,8 +12758,12 @@
       <c r="E384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F384" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1071.79</v>
       </c>
@@ -13708,8 +12779,12 @@
       <c r="E385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F385" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1073.22</v>
       </c>
@@ -13725,8 +12800,12 @@
       <c r="E386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F386" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1074.22</v>
       </c>
@@ -13742,8 +12821,12 @@
       <c r="E387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F387" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1075.6500000000001</v>
       </c>
@@ -13759,8 +12842,12 @@
       <c r="E388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F388" t="str">
+        <f t="shared" ref="F388:F400" si="10">IF(D388=D387,"",A388)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1076.6600000000001</v>
       </c>
@@ -13776,8 +12863,12 @@
       <c r="E389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F389" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1078.0899999999999</v>
       </c>
@@ -13793,8 +12884,12 @@
       <c r="E390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F390" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1079.0899999999999</v>
       </c>
@@ -13810,8 +12905,12 @@
       <c r="E391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F391" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1080.53</v>
       </c>
@@ -13827,8 +12926,12 @@
       <c r="E392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F392" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1081.53</v>
       </c>
@@ -13844,8 +12947,12 @@
       <c r="E393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F393" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1112.1099999999999</v>
       </c>
@@ -13861,8 +12968,12 @@
       <c r="E394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F394" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1113.1099999999999</v>
       </c>
@@ -13878,8 +12989,12 @@
       <c r="E395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F395" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1116.96</v>
       </c>
@@ -13895,8 +13010,12 @@
       <c r="E396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F396" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1117.96</v>
       </c>
@@ -13912,8 +13031,12 @@
       <c r="E397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F397" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1121.82</v>
       </c>
@@ -13929,8 +13052,12 @@
       <c r="E398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F398" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1122.82</v>
       </c>
@@ -13946,8 +13073,12 @@
       <c r="E399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F399" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1124.26</v>
       </c>
@@ -13962,6 +13093,10 @@
       </c>
       <c r="E400">
         <v>1</v>
+      </c>
+      <c r="F400" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
     </row>
     <row r="430" spans="6:6" x14ac:dyDescent="0.3">
